--- a/個人課表/D6543201.xlsx
+++ b/個人課表/D6543201.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863ED3DE-D956-4833-862A-60C25445A50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D08671-567A-4940-98BC-94A3AED1FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="7490" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,24 +81,6 @@
   <si>
     <t>16:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>軟體測試</t>
-  </si>
-  <si>
-    <t>網頁開發</t>
-  </si>
-  <si>
-    <t>企業社會責任</t>
-  </si>
-  <si>
-    <t>音樂與社會</t>
-  </si>
-  <si>
-    <t>企業行為</t>
-  </si>
-  <si>
-    <t>音樂欣賞</t>
   </si>
 </sst>
 </file>
@@ -444,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -474,34 +456,22 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -517,40 +487,28 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
